--- a/note/陌生单词表.xlsx
+++ b/note/陌生单词表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\python\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67323D77-B5F5-492A-90BE-4BEAD08A97AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE62E4FA-6735-4AEE-8046-833ACCBA378F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7992" yWindow="2040" windowWidth="11472" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>单词</t>
   </si>
@@ -73,6 +73,14 @@
   </si>
   <si>
     <t>槽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inheritance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -446,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="70.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -519,6 +527,14 @@
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="70.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
